--- a/biology/Zoologie/Argiope_trifasciata/Argiope_trifasciata.xlsx
+++ b/biology/Zoologie/Argiope_trifasciata/Argiope_trifasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope trifasciata est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope trifasciata est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire d'Amérique du Nord et du Sud[1].
-Elle a été introduite en Afrique dont aux îles Canaries et à Madère[2], du Portugal à Palestine, en Irak, en Iran, en Inde, Chine, en Japon, en Australie et dans les îles du Pacifique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire d'Amérique du Nord et du Sud.
+Elle a été introduite en Afrique dont aux îles Canaries et à Madère, du Portugal à Palestine, en Irak, en Iran, en Inde, Chine, en Japon, en Australie et dans les îles du Pacifique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope trifasciata présente un dimorphisme sexuel important. Les mâles mesurent de 3,8 à 7,3 mm et les femelles de 10,3 à 21,0 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope trifasciata présente un dimorphisme sexuel important. Les mâles mesurent de 3,8 à 7,3 mm et les femelles de 10,3 à 21,0 mm.
 Cette araignée occupe dans le reste du monde la place qu'Argiope bruennichi a en Europe avec laquelle elle peut être facilement confondue.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 23.0, 23/02/2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 23.0, 23/02/2022) :
 Argiope trifasciata trifasciata (Forsskål, 1775)
 Argiope trifasciata deserticola Simon, 1906 du Soudan
 Argiope trifasciata kauaiensis Simon, 1900 d'Hawaï
@@ -609,12 +627,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea trifasciata par Forsskål en 1775. Elle est placée dans le genre Argiope par Keyserling en 1886[5].
-Argiope abalosi[6], Argiope avara[7], Argiope seminola[8] et Argiope stenogastra[9] ont été placées en synonymie par Levi en 1968[10].
-Argiope plana[11] a été placée en synonymie par Chrysanthus en 1972[12].
-Brachygea platycephala[13] et Argiope pradhani[14] ont été placées en synonymie par Levi en 1983[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea trifasciata par Forsskål en 1775. Elle est placée dans le genre Argiope par Keyserling en 1886.
+Argiope abalosi, Argiope avara, Argiope seminola et Argiope stenogastra ont été placées en synonymie par Levi en 1968.
+Argiope plana a été placée en synonymie par Chrysanthus en 1972.
+Brachygea platycephala et Argiope pradhani ont été placées en synonymie par Levi en 1983.
 </t>
         </is>
       </c>
